--- a/data/measurements/summary.xlsx
+++ b/data/measurements/summary.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Batch 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Batch 1'!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Batch 1'!$A$1:$E$20</definedName>
   </definedNames>
   <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Weapon Name</t>
   </si>
@@ -34,9 +34,15 @@
     <t xml:space="preserve">Relative Difference</t>
   </si>
   <si>
+    <t>Applied</t>
+  </si>
+  <si>
     <t xml:space="preserve">30-30 – all charged</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Triple Take – all charged</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>Alternator</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Bocek</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
   </si>
   <si>
     <t>Kraber</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">Sentinel - amped</t>
@@ -185,7 +197,7 @@
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="5" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -199,6 +211,9 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="3" borderId="0" numFmtId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
@@ -688,10 +703,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>231</v>
@@ -703,10 +721,13 @@
         <f>((C2-B2)/B2)</f>
         <v>-0.77489177489177485</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>81</v>
@@ -718,10 +739,13 @@
         <f>((#REF!-#REF!)/#REF!)</f>
         <v>#REF!</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>231</v>
@@ -733,10 +757,13 @@
         <f>((C4-B4)/B4)</f>
         <v>-0.39826839826839827</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>600</v>
@@ -748,10 +775,13 @@
         <f>((C13-B13)/B13)</f>
         <v>0</v>
       </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>92</v>
@@ -763,10 +793,13 @@
         <f>((C5-B5)/B5)</f>
         <v>0</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>600</v>
@@ -778,25 +811,31 @@
         <f>((C13-B13)/B13)</f>
         <v>0</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
         <v>672</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>672</v>
       </c>
       <c r="D8" s="4">
         <f>((C14-B14)/B14)</f>
         <v>0</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>78</v>
@@ -808,27 +847,33 @@
         <f>((C7-B7)/B7)</f>
         <v>0</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
         <v>600</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>600</v>
       </c>
       <c r="D10" s="4">
         <f>((C10-B10)/B10)</f>
         <v>0</v>
       </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9">
         <v>79</v>
       </c>
       <c r="C11" s="1">
@@ -838,12 +883,15 @@
         <f>((C5-B5)/B5)</f>
         <v>0</v>
       </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10">
         <v>810</v>
       </c>
       <c r="C12" s="1">
@@ -853,12 +901,15 @@
         <f>((C14-B14)/B14)</f>
         <v>0</v>
       </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8">
+        <v>18</v>
+      </c>
+      <c r="B13" s="9">
         <v>81</v>
       </c>
       <c r="C13" s="1">
@@ -868,12 +919,15 @@
         <f>((#REF!-#REF!)/#REF!)</f>
         <v>#REF!</v>
       </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9">
+        <v>19</v>
+      </c>
+      <c r="B14" s="10">
         <v>720</v>
       </c>
       <c r="C14" s="1">
@@ -883,10 +937,13 @@
         <f>((C10-B10)/B10)</f>
         <v>0</v>
       </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>240</v>
@@ -894,74 +951,89 @@
       <c r="C15" s="1">
         <v>250</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <f>((C17-B17)/B17)</f>
         <v>0.15384615384615385</v>
       </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>25</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>27</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <f>((C20-B20)/B20)</f>
         <v>0.29032258064516131</v>
       </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10">
         <v>39</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>45</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <f>((C17-B17)/B17)</f>
         <v>0.15384615384615385</v>
       </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9">
         <v>51</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>60</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <f>((C12-B12)/B12)</f>
         <v>0</v>
       </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10">
         <v>180</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>220</v>
       </c>
-      <c r="D19" s="10" t="e">
+      <c r="D19" s="11" t="e">
         <f>((C24-B24)/B24)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -969,33 +1041,32 @@
       <c r="C20" s="1">
         <v>40</v>
       </c>
-      <c r="D20" s="10" t="e">
+      <c r="D20" s="11" t="e">
         <f>((C16-B16)/B16)</f>
         <v>#NAME?</v>
       </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" ht="12.75">
       <c r="A21" s="3"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" ht="12.75">
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" ht="12.75">
-      <c r="D23" s="11"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" ht="12.75">
-      <c r="D24" s="11"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" ht="12.75">
-      <c r="D25" s="11"/>
+      <c r="D25" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D13">
-    <sortState ref="D1:D13">
-      <sortCondition descending="0" ref="D1:D13"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E20"/>
   <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
